--- a/data/trans_dic/P02E$ssociales-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P02E$ssociales-Edad-trans_dic.xlsx
@@ -707,26 +707,26 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.1263191913372519</v>
+        <v>0.1232312046661727</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1843218009913058</v>
+        <v>0.1882545923349232</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08822753191486125</v>
+        <v>0.08952809755175829</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05050869462281101</v>
+        <v>0.04474482272878672</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.06813729612391935</v>
+        <v>0.05503815829274931</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04508112825186688</v>
+        <v>0.04222544127222643</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05834614793362491</v>
+        <v>0.05063631205777686</v>
       </c>
     </row>
     <row r="7">
@@ -784,12 +784,12 @@
       </c>
       <c r="F8" s="5" t="inlineStr"/>
       <c r="G8" s="5" t="n">
-        <v>0.002407230927947864</v>
+        <v>0.002385155795442161</v>
       </c>
       <c r="H8" s="5" t="inlineStr"/>
       <c r="I8" s="5" t="inlineStr"/>
       <c r="J8" s="5" t="n">
-        <v>0.001686626570743998</v>
+        <v>0.001696540852626529</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
@@ -804,22 +804,22 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.02195497893206274</v>
+        <v>0.01991872190014425</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03932094508706841</v>
+        <v>0.03398119550350909</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="n">
-        <v>0.02326922160017645</v>
+        <v>0.02211989232886681</v>
       </c>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.01639754591791062</v>
+        <v>0.01752755689878777</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0150034218626337</v>
+        <v>0.01535362281602724</v>
       </c>
     </row>
     <row r="10">
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0009421172575593587</v>
+        <v>0.001009086472385535</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
@@ -903,28 +903,28 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.01356736085486242</v>
+        <v>0.01545628149182434</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01982155179301959</v>
+        <v>0.01668802710210532</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01360432391069778</v>
+        <v>0.01588872139008781</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01183202786780591</v>
+        <v>0.012222769097214</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01245791459930964</v>
+        <v>0.01321883673966233</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.007949635310890579</v>
+        <v>0.00851954641165637</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.009462705864125714</v>
+        <v>0.009784609995363814</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.009506049131666158</v>
+        <v>0.009875458624463162</v>
       </c>
     </row>
     <row r="13">
@@ -975,7 +975,7 @@
       </c>
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="n">
-        <v>0.004295951968225469</v>
+        <v>0.004203276627764886</v>
       </c>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
@@ -985,16 +985,16 @@
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.004957602872809132</v>
+        <v>0.004983358325158292</v>
       </c>
       <c r="I14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.002284105876536143</v>
+        <v>0.002109462370091128</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.002662604305824415</v>
+        <v>0.002652247861003564</v>
       </c>
     </row>
     <row r="15">
@@ -1006,26 +1006,26 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.03799634797507511</v>
+        <v>0.03747643540626733</v>
       </c>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.06480204024971448</v>
+        <v>0.05905237516377524</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01959092102617628</v>
+        <v>0.01948120950935384</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04368755309151346</v>
+        <v>0.04386959551118065</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03070924503184633</v>
+        <v>0.02648297767561177</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02030344646188128</v>
+        <v>0.02231898966259257</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02425879972267141</v>
+        <v>0.02315550510845515</v>
       </c>
     </row>
     <row r="16">
@@ -1076,24 +1076,24 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.02129626485369873</v>
+        <v>0.02119228370859395</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="5" t="n">
-        <v>0.01067008313765883</v>
+        <v>0.01083937598169439</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01971235113614484</v>
+        <v>0.01947971260077791</v>
       </c>
       <c r="I17" s="5" t="inlineStr"/>
       <c r="J17" s="5" t="n">
-        <v>0.02180471162595828</v>
+        <v>0.02664615319186835</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0233045945477905</v>
+        <v>0.02248080709548423</v>
       </c>
     </row>
     <row r="18">
@@ -1105,24 +1105,24 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.1983574903503306</v>
+        <v>0.1779993278996066</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1622037840553146</v>
+        <v>0.1875067880711163</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="n">
-        <v>0.09794618634067548</v>
+        <v>0.09847840667433599</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1778256588791947</v>
+        <v>0.1754492124367515</v>
       </c>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="n">
-        <v>0.09645914744787827</v>
+        <v>0.1043437961253856</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1337537114486143</v>
+        <v>0.1296706346317357</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04828363501779493</v>
+        <v>0.04549543343166001</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02001252399861433</v>
+        <v>0.02001487926112143</v>
       </c>
       <c r="H20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.0144375993523216</v>
+        <v>0.01450855809745388</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.0439459449099464</v>
+        <v>0.0440954865504827</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
@@ -1207,31 +1207,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4036863032127325</v>
+        <v>0.4407024928910474</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3963387383333361</v>
+        <v>0.3839507415973404</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2584194183637851</v>
+        <v>0.2309893797265577</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.0964533175237582</v>
+        <v>0.09592070848230422</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1712778948825807</v>
+        <v>0.1685793752263589</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1398225035317527</v>
+        <v>0.1164072780085797</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1215683742361784</v>
+        <v>0.1141869342495862</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1874216378392102</v>
+        <v>0.1891782356944297</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1159911323411098</v>
+        <v>0.1023083936622476</v>
       </c>
     </row>
     <row r="22">
@@ -1289,17 +1289,17 @@
       </c>
       <c r="F23" s="5" t="inlineStr"/>
       <c r="G23" s="5" t="n">
-        <v>0.05175498679146178</v>
+        <v>0.0503200428145406</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="5" t="inlineStr"/>
       <c r="J23" s="5" t="n">
-        <v>0.03883859592995626</v>
+        <v>0.04000212358559778</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0143791068574649</v>
+        <v>0.01499905809899653</v>
       </c>
     </row>
     <row r="24">
@@ -1311,24 +1311,24 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.3506088575118603</v>
+        <v>0.3027033413338935</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4962719818360644</v>
+        <v>0.4749231894120104</v>
       </c>
       <c r="F24" s="5" t="inlineStr"/>
       <c r="G24" s="5" t="n">
-        <v>0.2664819169342322</v>
+        <v>0.2634292048260128</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1483845950587675</v>
+        <v>0.1300107258142739</v>
       </c>
       <c r="I24" s="5" t="inlineStr"/>
       <c r="J24" s="5" t="n">
-        <v>0.2249968911889398</v>
+        <v>0.2340336239195396</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1719587927597549</v>
+        <v>0.1611939408765574</v>
       </c>
     </row>
     <row r="25">
@@ -1381,28 +1381,28 @@
         <v>0</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.0100660190429704</v>
+        <v>0.009196313508883336</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.007573964417279927</v>
+        <v>0.006727591635546009</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.001761268741060632</v>
+        <v>0.001899991984689383</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.008026581859252769</v>
+        <v>0.007915360548296838</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.004694900021760999</v>
+        <v>0.004633331194513062</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.001755438458592013</v>
+        <v>0.001767889432909527</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.010243524298442</v>
+        <v>0.01010954617822022</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.006802257505784819</v>
+        <v>0.006960423582459529</v>
       </c>
     </row>
     <row r="27">
@@ -1413,31 +1413,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01039314820472961</v>
+        <v>0.01053968890093346</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02631763733475535</v>
+        <v>0.02537517110093993</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02604876820563551</v>
+        <v>0.02361525492487175</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.009851092737194212</v>
+        <v>0.01060847905840618</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.02013321940018996</v>
+        <v>0.01975548935035923</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.01688407625455432</v>
+        <v>0.0161882239487185</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.007870836259469298</v>
+        <v>0.008140777059497591</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.01928663693789436</v>
+        <v>0.01915232417262015</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.01722464321052957</v>
+        <v>0.01689773542554711</v>
       </c>
     </row>
     <row r="28">
@@ -1701,26 +1701,26 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>5179</v>
+        <v>5053</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7512</v>
+        <v>7673</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>4460</v>
+        <v>4526</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5133</v>
+        <v>4548</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>5492</v>
+        <v>4436</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>6430</v>
+        <v>6023</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>7621</v>
+        <v>6614</v>
       </c>
     </row>
     <row r="8">
@@ -1813,12 +1813,12 @@
       </c>
       <c r="F10" s="6" t="inlineStr"/>
       <c r="G10" s="6" t="n">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="H10" s="6" t="inlineStr"/>
       <c r="I10" s="6" t="inlineStr"/>
       <c r="J10" s="6" t="n">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>4704</v>
+        <v>4267</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>6815</v>
+        <v>5889</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="n">
-        <v>9088</v>
+        <v>8639</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>9917</v>
+        <v>10600</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>7002</v>
+        <v>7166</v>
       </c>
     </row>
     <row r="12">
@@ -1952,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>931</v>
+        <v>997</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
@@ -1967,28 +1967,28 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>5623</v>
+        <v>6406</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6180</v>
+        <v>5203</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5335</v>
+        <v>6231</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6792</v>
+        <v>7016</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5074</v>
+        <v>5384</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>5268</v>
+        <v>5646</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>9354</v>
+        <v>9672</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>6836</v>
+        <v>7102</v>
       </c>
     </row>
     <row r="16">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C18" s="6" t="inlineStr"/>
       <c r="D18" s="6" t="n">
-        <v>982</v>
+        <v>961</v>
       </c>
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
@@ -2084,16 +2084,16 @@
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1120</v>
+        <v>1034</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="19">
@@ -2105,26 +2105,26 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>8690</v>
+        <v>8571</v>
       </c>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>7831</v>
+        <v>7136</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>5126</v>
+        <v>5097</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>7962</v>
+        <v>7995</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>7102</v>
+        <v>6124</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>9955</v>
+        <v>10944</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>8227</v>
+        <v>7853</v>
       </c>
     </row>
     <row r="20">
@@ -2210,24 +2210,24 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="6" t="inlineStr"/>
       <c r="G22" s="6" t="n">
-        <v>1073</v>
+        <v>1090</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1119</v>
+        <v>1106</v>
       </c>
       <c r="I22" s="6" t="inlineStr"/>
       <c r="J22" s="6" t="n">
-        <v>3264</v>
+        <v>3988</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2261</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="23">
@@ -2239,24 +2239,24 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>9749</v>
+        <v>8748</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6527</v>
+        <v>7546</v>
       </c>
       <c r="F23" s="6" t="inlineStr"/>
       <c r="G23" s="6" t="n">
-        <v>9847</v>
+        <v>9900</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>10097</v>
+        <v>9962</v>
       </c>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>14438</v>
+        <v>15618</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>12977</v>
+        <v>12581</v>
       </c>
     </row>
     <row r="24">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1076</v>
+        <v>1014</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>0</v>
@@ -2359,10 +2359,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>3058</v>
+        <v>3068</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>0</v>
@@ -2376,31 +2376,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5721</v>
+        <v>6246</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>8836</v>
+        <v>8559</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5490</v>
+        <v>4908</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>4527</v>
+        <v>4502</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>8099</v>
+        <v>7971</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>5097</v>
+        <v>4243</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>7428</v>
+        <v>6977</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>13040</v>
+        <v>13162</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>6693</v>
+        <v>5903</v>
       </c>
     </row>
     <row r="28">
@@ -2493,17 +2493,17 @@
       </c>
       <c r="F30" s="6" t="inlineStr"/>
       <c r="G30" s="6" t="n">
-        <v>2134</v>
+        <v>2075</v>
       </c>
       <c r="H30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="6" t="inlineStr"/>
       <c r="J30" s="6" t="n">
-        <v>2182</v>
+        <v>2247</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>825</v>
+        <v>860</v>
       </c>
     </row>
     <row r="31">
@@ -2515,24 +2515,24 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>5241</v>
+        <v>4525</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>6180</v>
+        <v>5914</v>
       </c>
       <c r="F31" s="6" t="inlineStr"/>
       <c r="G31" s="6" t="n">
-        <v>10988</v>
+        <v>10862</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>6662</v>
+        <v>5837</v>
       </c>
       <c r="I31" s="6" t="inlineStr"/>
       <c r="J31" s="6" t="n">
-        <v>12641</v>
+        <v>13148</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>9862</v>
+        <v>9245</v>
       </c>
     </row>
     <row r="32">
@@ -2620,28 +2620,28 @@
         <v>0</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>9913</v>
+        <v>9057</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>5731</v>
+        <v>5091</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1772</v>
+        <v>1911</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>12175</v>
+        <v>12007</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>5216</v>
+        <v>5148</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>2865</v>
+        <v>2885</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>25626</v>
+        <v>25291</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>12704</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="35">
@@ -2652,31 +2652,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>6508</v>
+        <v>6600</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>25918</v>
+        <v>24990</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>19710</v>
+        <v>17869</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>9908</v>
+        <v>10670</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>30540</v>
+        <v>29967</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>18758</v>
+        <v>17985</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>12845</v>
+        <v>13286</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>48249</v>
+        <v>47913</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>32170</v>
+        <v>31559</v>
       </c>
     </row>
     <row r="36">
